--- a/data/outputs/management/58.xlsx
+++ b/data/outputs/management/58.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ53"/>
+  <dimension ref="A1:BR53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -913,6 +918,11 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>4217994</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1126,6 +1136,11 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>9185420</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1335,6 +1350,11 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>4946765</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1544,6 +1564,11 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>4853046</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1749,6 +1774,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1958,6 +1984,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2167,6 +2194,11 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>4268504</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2372,6 +2404,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2581,6 +2614,11 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>4601547</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2794,6 +2832,11 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>4674076</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2995,6 +3038,11 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>4664395</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3200,6 +3248,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3405,6 +3454,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3614,6 +3664,11 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>4502637</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3819,6 +3874,11 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>4109183</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4016,6 +4076,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4221,6 +4282,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4426,6 +4488,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4631,6 +4694,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4812,6 +4876,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5049,6 +5114,11 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>3932723</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5270,6 +5340,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5487,6 +5558,11 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr">
+        <is>
+          <t>4814670</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5708,6 +5784,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5929,6 +6006,11 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr">
+        <is>
+          <t>4596213</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6166,6 +6248,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6395,6 +6478,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6624,6 +6708,11 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr">
+        <is>
+          <t>4822035</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6801,6 +6890,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6978,6 +7068,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7179,6 +7270,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7392,6 +7484,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7593,6 +7686,11 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr">
+        <is>
+          <t>4511931</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7806,6 +7904,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8011,6 +8110,11 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr">
+        <is>
+          <t>4389538</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8224,6 +8328,11 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr">
+        <is>
+          <t>7526198</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8425,6 +8534,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8626,6 +8736,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8831,6 +8942,11 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr">
+        <is>
+          <t>4140268</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9020,6 +9136,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9229,6 +9346,11 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr">
+        <is>
+          <t>4176978</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9434,6 +9556,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9639,6 +9762,11 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr">
+        <is>
+          <t>2943857</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9852,6 +9980,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10053,6 +10182,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10258,6 +10388,11 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr">
+        <is>
+          <t>2790918</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10475,6 +10610,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10676,6 +10812,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10889,6 +11026,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11098,6 +11236,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11299,6 +11438,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11496,6 +11636,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
